--- a/db/Project_01.xlsx
+++ b/db/Project_01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suchoi/Desktop/teamProject/01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suchoi/Desktop/java/java_workspace/kosta212_team6/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB924249-B8EF-BA49-92AA-027DB5EEBF39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B75DE1D-511B-374A-A7E1-6A4D12D5338E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="1380" windowWidth="28100" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="143">
   <si>
     <t>Member</t>
   </si>
@@ -531,6 +531,18 @@
   </si>
   <si>
     <t>(4) 뒤로가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5) 비밀번호 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4) 내 회원정보 열람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6) 탈퇴하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="J9" zoomScale="159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1925,6 +1937,9 @@
       <c r="H29" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="Q29" s="19" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="13" t="s">
@@ -1951,6 +1966,9 @@
       <c r="H30" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="Q30" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="4" t="s">
@@ -1976,6 +1994,9 @@
       </c>
       <c r="H31" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:19">

--- a/db/Project_01.xlsx
+++ b/db/Project_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suchoi/Desktop/java/java_workspace/kosta212_team6/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B75DE1D-511B-374A-A7E1-6A4D12D5338E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CD39D-B977-6241-8E6F-B52CDB0EB540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="1380" windowWidth="28100" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="144">
   <si>
     <t>Member</t>
   </si>
@@ -458,18 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5) 마이서재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 책바구니 담기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4) 책바구니 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(1) 대여한 도서 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,6 +531,22 @@
   </si>
   <si>
     <t>(6) 탈퇴하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 책바구니 담기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 책바구니 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) 마이서재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 도서 예약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1144,7 +1148,7 @@
   <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J9" zoomScale="159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1349,16 +1353,16 @@
     <row r="9" spans="1:19">
       <c r="A9" s="8"/>
       <c r="B9" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>76</v>
@@ -1652,9 +1656,8 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q19" s="1"/>
+        <v>143</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
@@ -1689,7 +1692,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1725,9 +1728,10 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="Q21" s="19" t="s">
-        <v>136</v>
-      </c>
+      <c r="P21" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
@@ -1762,7 +1766,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="Q22" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1804,7 +1808,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="Q23" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -1835,7 +1839,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1863,8 +1867,8 @@
       <c r="H25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="P25" t="s">
-        <v>121</v>
+      <c r="Q25" s="19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -1892,24 +1896,24 @@
       <c r="H26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>124</v>
+      <c r="P26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="Q27" s="19" t="s">
-        <v>125</v>
+      <c r="Q27" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>101</v>
+      <c r="Q28" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -1937,8 +1941,8 @@
       <c r="H29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>141</v>
+      <c r="Q29" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -1967,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -1996,7 +2000,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2023,6 +2027,9 @@
       </c>
       <c r="H32" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2108,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2326,7 +2333,7 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>104</v>
@@ -2373,19 +2380,19 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B50" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>130</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>76</v>
@@ -2400,14 +2407,14 @@
     <row r="51" spans="1:18">
       <c r="A51" s="7"/>
       <c r="B51" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>76</v>

--- a/db/Project_01.xlsx
+++ b/db/Project_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suchoi/Desktop/java/java_workspace/kosta212_team6/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CD39D-B977-6241-8E6F-B52CDB0EB540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1860D46C-CA51-794F-AFC2-20B99A4AB3D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="1380" windowWidth="28100" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="150">
   <si>
     <t>Member</t>
   </si>
@@ -374,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검색 -&gt; 책 정보 클릭 -&gt; 장바구니 메뉴 토글 (y/n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(3) 반납하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,6 +543,34 @@
   </si>
   <si>
     <t>3) 도서 예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능 달기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반고객</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이서재 1~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) (2)~(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메세지띄우기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1147,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J9" zoomScale="159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="J14" zoomScale="159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1346,23 +1370,20 @@
       <c r="H8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O8" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="8"/>
       <c r="B9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="25" t="s">
         <v>126</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>127</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>76</v>
@@ -1469,7 +1490,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1506,7 +1527,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1656,7 +1677,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -1692,7 +1713,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1729,7 +1750,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1766,7 +1787,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="Q22" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1808,7 +1829,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="Q23" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -1839,7 +1860,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1868,7 +1889,7 @@
         <v>78</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -1897,7 +1918,7 @@
         <v>11</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -1905,7 +1926,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -1913,7 +1934,7 @@
         <v>52</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -1942,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -1970,8 +1991,14 @@
       <c r="H30" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="M30" t="s">
+        <v>144</v>
+      </c>
+      <c r="N30" t="s">
+        <v>145</v>
+      </c>
       <c r="Q30" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -1999,8 +2026,11 @@
       <c r="H31" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="N31" t="s">
+        <v>146</v>
+      </c>
       <c r="Q31" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2028,8 +2058,11 @@
       <c r="H32" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="N32" t="s">
+        <v>147</v>
+      </c>
       <c r="Q32" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2083,6 +2116,12 @@
       <c r="H34" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="M34" t="s">
+        <v>148</v>
+      </c>
+      <c r="N34" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="17" t="s">
@@ -2115,7 +2154,13 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="M36" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2333,19 +2378,19 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K48" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L48" t="s">
         <v>104</v>
       </c>
-      <c r="L48" t="s">
+      <c r="O48" t="s">
         <v>105</v>
       </c>
-      <c r="O48" t="s">
+      <c r="S48" t="s">
         <v>106</v>
-      </c>
-      <c r="S48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -2375,24 +2420,24 @@
       </c>
       <c r="K49" s="6"/>
       <c r="P49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B50" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="D50" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="E50" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>127</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>76</v>
@@ -2401,20 +2446,20 @@
       <c r="H50" s="24"/>
       <c r="K50" s="6"/>
       <c r="P50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="7"/>
       <c r="B51" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>76</v>
@@ -2447,55 +2492,55 @@
     <row r="55" spans="1:18">
       <c r="K55" s="6"/>
       <c r="P55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="K56" s="6"/>
       <c r="Q56" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="K57" s="6"/>
       <c r="Q57" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="K58" s="6"/>
       <c r="Q58" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="K59" s="6"/>
       <c r="P59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="K60" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L60" t="s">
         <v>108</v>
       </c>
-      <c r="L60" t="s">
-        <v>109</v>
-      </c>
       <c r="Q60" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="Q61" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="Q62" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
